--- a/data/trans_orig/P43A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Edad-trans_orig.xlsx
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4373</v>
+        <v>4016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03681180550239056</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1638166121689539</v>
+        <v>0.150444755918166</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>8847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4651</v>
+        <v>4507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14410</v>
+        <v>13919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3314121635202855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1742315418821002</v>
+        <v>0.1688362184425103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5397944043561912</v>
+        <v>0.5213944642134849</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>8462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3952</v>
+        <v>4049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13366</v>
+        <v>13666</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3169611935109574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1480520781636448</v>
+        <v>0.1516581260545348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5006705844248184</v>
+        <v>0.5119302712387478</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>8404</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4340</v>
+        <v>4125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13588</v>
+        <v>13730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3148148374663666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1625801455353304</v>
+        <v>0.1545049353977505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5089739817528567</v>
+        <v>0.5142952121583888</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>17811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11309</v>
+        <v>10961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27091</v>
+        <v>27404</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2210963908043973</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1403802279829068</v>
+        <v>0.1360694365289433</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3362907701904637</v>
+        <v>0.3401795605480934</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>30026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21396</v>
+        <v>22069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38542</v>
+        <v>39238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3727240954254167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2655985690971364</v>
+        <v>0.2739466093522379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4784397275962044</v>
+        <v>0.4870789385547882</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>16321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9920</v>
+        <v>9692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24978</v>
+        <v>25083</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2025974424006828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1231469053192146</v>
+        <v>0.1203094009573854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3100619887189648</v>
+        <v>0.3113702883874657</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>16400</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9909</v>
+        <v>9965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25190</v>
+        <v>24492</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2035820713695032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.122999439676247</v>
+        <v>0.1236988812115118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.312693702383517</v>
+        <v>0.3040327575117939</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>43841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32424</v>
+        <v>32674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58421</v>
+        <v>56055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1890590577257854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1398262597718461</v>
+        <v>0.1409052822713371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2519351304883525</v>
+        <v>0.2417343929717294</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>83034</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>68812</v>
+        <v>68548</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98769</v>
+        <v>97460</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3580779653907752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2967459232667684</v>
+        <v>0.2956097032205699</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4259327328584466</v>
+        <v>0.4202904536193405</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>64140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50767</v>
+        <v>50663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78299</v>
+        <v>77678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2766002753160096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2189305467851228</v>
+        <v>0.2184800385769644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3376567129660364</v>
+        <v>0.3349803713869201</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>40873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29579</v>
+        <v>30708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56260</v>
+        <v>53851</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1762627015674298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1275570717061669</v>
+        <v>0.1324260227355837</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2426160061681166</v>
+        <v>0.2322277477022093</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>39821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29822</v>
+        <v>29024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52925</v>
+        <v>52874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1254375717875222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09394035247201524</v>
+        <v>0.09142710781074423</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1667145750401853</v>
+        <v>0.1665540007055324</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>101374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85918</v>
+        <v>84633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118261</v>
+        <v>117744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3193297374565439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2706429379221036</v>
+        <v>0.2665958633312558</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3725261740501909</v>
+        <v>0.3708970768661107</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>98305</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83191</v>
+        <v>81395</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115125</v>
+        <v>115527</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3096640844543975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2620534428749191</v>
+        <v>0.2563961902397463</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3626473853346607</v>
+        <v>0.3639119936207854</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>77958</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63833</v>
+        <v>63038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93720</v>
+        <v>92475</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2455686063015364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2010765490551886</v>
+        <v>0.1985703184913955</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2952191547655182</v>
+        <v>0.2912994696298108</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>45158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33779</v>
+        <v>32732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58212</v>
+        <v>57387</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1498873517451554</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1121183989705888</v>
+        <v>0.1086440494894902</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1932190503151051</v>
+        <v>0.1904796374056394</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>138052</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>120486</v>
+        <v>121038</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153734</v>
+        <v>154571</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4582218353637236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3999171353826787</v>
+        <v>0.4017490156521512</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5102752109544202</v>
+        <v>0.5130513640758817</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>65613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52728</v>
+        <v>52105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80479</v>
+        <v>81102</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2177834266261568</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.17501589153898</v>
+        <v>0.1729460048180631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2671248223169107</v>
+        <v>0.269194139307412</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>52455</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>40152</v>
+        <v>40759</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>65795</v>
+        <v>65560</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1741073862649642</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1332733791865347</v>
+        <v>0.1352863629433603</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2183873869189266</v>
+        <v>0.2176054231160677</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>91608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77836</v>
+        <v>77623</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105390</v>
+        <v>104853</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4275447317693112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3632672886114892</v>
+        <v>0.3622744912160467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4918651273851988</v>
+        <v>0.4893575531715431</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>68078</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54399</v>
+        <v>55478</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81581</v>
+        <v>80496</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3177266254406294</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2538848081902668</v>
+        <v>0.2589203541896842</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3807478315302122</v>
+        <v>0.3756841113165292</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>36711</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27276</v>
+        <v>27142</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48519</v>
+        <v>48186</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1713348477530487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.127300317210604</v>
+        <v>0.1266722962956319</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.226441063706504</v>
+        <v>0.2248890134642374</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>17868</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10748</v>
+        <v>11381</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26288</v>
+        <v>26412</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08339379503701067</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05016409580757152</v>
+        <v>0.05311531345070017</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1226881185003498</v>
+        <v>0.1232674145742876</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>64927</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>54340</v>
+        <v>55229</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>72777</v>
+        <v>73618</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6809233012535747</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5698891655468667</v>
+        <v>0.5792230362475947</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7632516031993194</v>
+        <v>0.7720764145915252</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>18911</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11625</v>
+        <v>11973</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>28164</v>
+        <v>28002</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1983271693116902</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1219149673856673</v>
+        <v>0.1255624876189375</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2953714075733882</v>
+        <v>0.2936780621114242</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>5736</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2261</v>
+        <v>2278</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12482</v>
+        <v>11936</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06015922657529521</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02370979918876487</v>
+        <v>0.0238906209706741</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1309064108814849</v>
+        <v>0.1251766989156501</v>
       </c>
     </row>
     <row r="37">
@@ -1605,19 +1605,19 @@
         <v>5777</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12398</v>
+        <v>12729</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06059030285943993</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0229512995663193</v>
+        <v>0.02288271852609433</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1300198568190901</v>
+        <v>0.1334951660702482</v>
       </c>
     </row>
     <row r="38">
@@ -1667,19 +1667,19 @@
         <v>304148</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>277767</v>
+        <v>275458</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>337615</v>
+        <v>332467</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2399603057706953</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2191468051465074</v>
+        <v>0.2173252149045765</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2663642881641601</v>
+        <v>0.2623026761578416</v>
       </c>
     </row>
     <row r="40">
@@ -1696,19 +1696,19 @@
         <v>448321</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>410377</v>
+        <v>413092</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>480226</v>
+        <v>481067</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3537069799524601</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3237706923746241</v>
+        <v>0.3259122615970425</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3788783258186811</v>
+        <v>0.3795416746159089</v>
       </c>
     </row>
     <row r="41">
@@ -1725,19 +1725,19 @@
         <v>295289</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>265226</v>
+        <v>265097</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>323560</v>
+        <v>323981</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2329704129201242</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2092519939268311</v>
+        <v>0.2091503677878019</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2552754907137014</v>
+        <v>0.2556078925520705</v>
       </c>
     </row>
     <row r="42">
@@ -1754,19 +1754,19 @@
         <v>219736</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>192850</v>
+        <v>195772</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>247941</v>
+        <v>247311</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1733623013567203</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1521502973554974</v>
+        <v>0.1544559626673838</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1956148378890754</v>
+        <v>0.1951181775500997</v>
       </c>
     </row>
     <row r="43">
@@ -1937,19 +1937,19 @@
         <v>3043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7515</v>
+        <v>8125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1111006928470484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03533820244527017</v>
+        <v>0.03480974698857004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.274404754821433</v>
+        <v>0.2966672028805191</v>
       </c>
     </row>
     <row r="5">
@@ -1966,19 +1966,19 @@
         <v>5430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1986</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10989</v>
+        <v>11013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1982865065520502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07252390739110137</v>
+        <v>0.07377255509838454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4012489037073704</v>
+        <v>0.4021328050705764</v>
       </c>
     </row>
     <row r="6">
@@ -1995,19 +1995,19 @@
         <v>10086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5415</v>
+        <v>5725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15540</v>
+        <v>15420</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3682605528320275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1977156783984552</v>
+        <v>0.2090488280799927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5674139464046832</v>
+        <v>0.5630527512994685</v>
       </c>
     </row>
     <row r="7">
@@ -2024,19 +2024,19 @@
         <v>8828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3923</v>
+        <v>3979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14733</v>
+        <v>14765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3223522477688739</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1432595335942267</v>
+        <v>0.1452900229286457</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5379575804106271</v>
+        <v>0.5391305254107482</v>
       </c>
     </row>
     <row r="8">
@@ -2086,19 +2086,19 @@
         <v>12636</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6923</v>
+        <v>6643</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21100</v>
+        <v>20473</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1621439242793571</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08883234412802647</v>
+        <v>0.08524025778662146</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2707560005009752</v>
+        <v>0.2627165396941443</v>
       </c>
     </row>
     <row r="10">
@@ -2115,19 +2115,19 @@
         <v>30175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21557</v>
+        <v>22123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38924</v>
+        <v>39176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.387203252161972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2766226612491553</v>
+        <v>0.2838785137322568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4994801970009025</v>
+        <v>0.5027049764713377</v>
       </c>
     </row>
     <row r="11">
@@ -2144,19 +2144,19 @@
         <v>23481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15478</v>
+        <v>15974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31889</v>
+        <v>32772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3013062627165337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1986200124139357</v>
+        <v>0.2049786297263415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4091992079059064</v>
+        <v>0.4205349082694039</v>
       </c>
     </row>
     <row r="12">
@@ -2173,19 +2173,19 @@
         <v>11639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6189</v>
+        <v>6381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19800</v>
+        <v>19513</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1493465608421372</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07941548792199266</v>
+        <v>0.08187807789794747</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2540724545612051</v>
+        <v>0.250388128897624</v>
       </c>
     </row>
     <row r="13">
@@ -2235,19 +2235,19 @@
         <v>49543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37043</v>
+        <v>37465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63526</v>
+        <v>65193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2104787253738061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.157375805683058</v>
+        <v>0.1591647284031955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2698865635272364</v>
+        <v>0.2769665098123294</v>
       </c>
     </row>
     <row r="15">
@@ -2264,19 +2264,19 @@
         <v>80482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66085</v>
+        <v>65782</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>95512</v>
+        <v>96254</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3419210880532836</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2807573623454914</v>
+        <v>0.2794704024634432</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4057748613321686</v>
+        <v>0.4089285939728526</v>
       </c>
     </row>
     <row r="16">
@@ -2293,19 +2293,19 @@
         <v>57798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45030</v>
+        <v>44759</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71662</v>
+        <v>71866</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2455480456900871</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1913048703434909</v>
+        <v>0.1901546709462349</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3044507973003173</v>
+        <v>0.3053166655422316</v>
       </c>
     </row>
     <row r="17">
@@ -2322,19 +2322,19 @@
         <v>47559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35429</v>
+        <v>35873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59463</v>
+        <v>62331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2020521408828231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1505158191804207</v>
+        <v>0.1524032788834291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2526231939967089</v>
+        <v>0.2648071903419894</v>
       </c>
     </row>
     <row r="18">
@@ -2384,19 +2384,19 @@
         <v>44530</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32599</v>
+        <v>32130</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60630</v>
+        <v>60827</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1084748891793055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07941031210689121</v>
+        <v>0.07826882131207061</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1476941004011429</v>
+        <v>0.1481726763114804</v>
       </c>
     </row>
     <row r="20">
@@ -2413,19 +2413,19 @@
         <v>158456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137522</v>
+        <v>139004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179663</v>
+        <v>180176</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3859950574617298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.334999960353457</v>
+        <v>0.3386098068068349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4376540432031338</v>
+        <v>0.43890523198327</v>
       </c>
     </row>
     <row r="21">
@@ -2442,19 +2442,19 @@
         <v>137413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>117642</v>
+        <v>119251</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157791</v>
+        <v>158825</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3347337042689068</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2865723651440952</v>
+        <v>0.2904921878358751</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3843760327980318</v>
+        <v>0.3868941837732615</v>
       </c>
     </row>
     <row r="22">
@@ -2471,19 +2471,19 @@
         <v>70114</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54943</v>
+        <v>55421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87764</v>
+        <v>86885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1707963490900579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1338390993733344</v>
+        <v>0.1350052791106944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2137911932759976</v>
+        <v>0.2116499901372857</v>
       </c>
     </row>
     <row r="23">
@@ -2533,19 +2533,19 @@
         <v>17461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10195</v>
+        <v>10390</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27642</v>
+        <v>27723</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04278729027074065</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02498227669606184</v>
+        <v>0.02546066107399993</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06773620455202609</v>
+        <v>0.06793368377888942</v>
       </c>
     </row>
     <row r="25">
@@ -2562,19 +2562,19 @@
         <v>198532</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>177544</v>
+        <v>179927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>218700</v>
+        <v>220138</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4864942580138346</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4350632013622194</v>
+        <v>0.4409033630583955</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5359145973854462</v>
+        <v>0.5394383455373536</v>
       </c>
     </row>
     <row r="26">
@@ -2591,19 +2591,19 @@
         <v>122352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104718</v>
+        <v>103466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142750</v>
+        <v>141127</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2998188259221748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2566074064031833</v>
+        <v>0.253538596402683</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3498030940651749</v>
+        <v>0.3458261992863171</v>
       </c>
     </row>
     <row r="27">
@@ -2620,19 +2620,19 @@
         <v>69742</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>54025</v>
+        <v>56754</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>87387</v>
+        <v>87973</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.17089962579325</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1323870861927721</v>
+        <v>0.1390729188221501</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2141392976464371</v>
+        <v>0.215575299201888</v>
       </c>
     </row>
     <row r="28">
@@ -2682,19 +2682,19 @@
         <v>78645</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64661</v>
+        <v>64835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94737</v>
+        <v>93777</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2625888153511856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2159001163555229</v>
+        <v>0.2164795492905552</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3163195749168775</v>
+        <v>0.3131137946372843</v>
       </c>
     </row>
     <row r="30">
@@ -2711,19 +2711,19 @@
         <v>122675</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>106702</v>
+        <v>106103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>141195</v>
+        <v>139591</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4096020765278328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3562703425130223</v>
+        <v>0.354271008305399</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4714394012305614</v>
+        <v>0.4660843156409259</v>
       </c>
     </row>
     <row r="31">
@@ -2740,19 +2740,19 @@
         <v>72236</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>58483</v>
+        <v>59189</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>87910</v>
+        <v>88692</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2411921102005939</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1952704909097572</v>
+        <v>0.1976294803907255</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2935270423620016</v>
+        <v>0.2961378681553423</v>
       </c>
     </row>
     <row r="32">
@@ -2769,19 +2769,19 @@
         <v>25942</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17557</v>
+        <v>17310</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38174</v>
+        <v>36569</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08661699792038761</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05862313315215675</v>
+        <v>0.05779734863015071</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1274615616920455</v>
+        <v>0.1221012463920224</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>136215</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>121845</v>
+        <v>121807</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>150201</v>
+        <v>150053</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6634162461475422</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5934305500948172</v>
+        <v>0.5932461246294957</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7315331201117353</v>
+        <v>0.730815826652675</v>
       </c>
     </row>
     <row r="35">
@@ -2860,19 +2860,19 @@
         <v>41403</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29286</v>
+        <v>30033</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54441</v>
+        <v>55769</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2016502380391979</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1426337506887284</v>
+        <v>0.1462729768234967</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2651466912768308</v>
+        <v>0.2716145919349077</v>
       </c>
     </row>
     <row r="36">
@@ -2889,19 +2889,19 @@
         <v>20086</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12140</v>
+        <v>12231</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29754</v>
+        <v>29506</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09782573432044658</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05912511244909757</v>
+        <v>0.05957022017376618</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1449136193165215</v>
+        <v>0.1437069861732811</v>
       </c>
     </row>
     <row r="37">
@@ -2918,19 +2918,19 @@
         <v>7619</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3236</v>
+        <v>4157</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15062</v>
+        <v>15372</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0371077814928132</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01575897659565791</v>
+        <v>0.02024776129225319</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07335598392152953</v>
+        <v>0.07486561030977673</v>
       </c>
     </row>
     <row r="38">
@@ -2980,19 +2980,19 @@
         <v>342072</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>305935</v>
+        <v>309856</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>373674</v>
+        <v>378385</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2055573169999588</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1838420041552916</v>
+        <v>0.1861979912076335</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2245475870341173</v>
+        <v>0.2273786352426626</v>
       </c>
     </row>
     <row r="40">
@@ -3009,19 +3009,19 @@
         <v>637154</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>597343</v>
+        <v>595474</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>684824</v>
+        <v>678924</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3828772502411601</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3589541973780616</v>
+        <v>0.3578310586852503</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4115229736890878</v>
+        <v>0.4079779329343653</v>
       </c>
     </row>
     <row r="41">
@@ -3038,19 +3038,19 @@
         <v>443451</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>408957</v>
+        <v>402611</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>482064</v>
+        <v>478068</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2664778579691016</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2457496645419264</v>
+        <v>0.2419361809891174</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2896811368801827</v>
+        <v>0.2872798452162043</v>
       </c>
     </row>
     <row r="42">
@@ -3067,19 +3067,19 @@
         <v>241443</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>211197</v>
+        <v>213347</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>271812</v>
+        <v>274079</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1450875747897795</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1269120636966485</v>
+        <v>0.1282040892353588</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1633366959371514</v>
+        <v>0.1646988250890316</v>
       </c>
     </row>
     <row r="43">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5204</v>
+        <v>4174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04642844442021508</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2414885677226743</v>
+        <v>0.1936774691105782</v>
       </c>
     </row>
     <row r="5">
@@ -3279,19 +3279,19 @@
         <v>10296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5940</v>
+        <v>6023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15239</v>
+        <v>14890</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4777717249670952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2756379975962859</v>
+        <v>0.2795062118343175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7071340742599814</v>
+        <v>0.6909684072070095</v>
       </c>
     </row>
     <row r="6">
@@ -3308,19 +3308,19 @@
         <v>7483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3588</v>
+        <v>3580</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12619</v>
+        <v>12141</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3472607476182664</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1665157703013695</v>
+        <v>0.1661121398031461</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5855571946278455</v>
+        <v>0.5633686633779119</v>
       </c>
     </row>
     <row r="7">
@@ -3337,19 +3337,19 @@
         <v>2770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7500</v>
+        <v>7279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1285390829944233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03971406724441577</v>
+        <v>0.03956774712058369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3480220920428432</v>
+        <v>0.3377881978879638</v>
       </c>
     </row>
     <row r="8">
@@ -3399,19 +3399,19 @@
         <v>12027</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7303</v>
+        <v>6622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18941</v>
+        <v>19618</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.159718556559935</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09698785539861721</v>
+        <v>0.08793558581058984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2515438320708931</v>
+        <v>0.2605273526360272</v>
       </c>
     </row>
     <row r="10">
@@ -3428,19 +3428,19 @@
         <v>30683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22805</v>
+        <v>22715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38517</v>
+        <v>38952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.40747089596726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3028563450445471</v>
+        <v>0.3016554044831176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5115136515524101</v>
+        <v>0.5172915422382418</v>
       </c>
     </row>
     <row r="11">
@@ -3457,19 +3457,19 @@
         <v>22949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15154</v>
+        <v>15611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31762</v>
+        <v>30686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3047658930712804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2012486733017177</v>
+        <v>0.2073207746606563</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4218109212132765</v>
+        <v>0.4075144709825796</v>
       </c>
     </row>
     <row r="12">
@@ -3486,19 +3486,19 @@
         <v>9642</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4740</v>
+        <v>5423</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15635</v>
+        <v>16438</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1280446544015246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06294907275571411</v>
+        <v>0.07201817196845618</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2076303881560286</v>
+        <v>0.2183004291061557</v>
       </c>
     </row>
     <row r="13">
@@ -3548,19 +3548,19 @@
         <v>41426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30285</v>
+        <v>29989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53157</v>
+        <v>52835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1832541813879489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1339721479444447</v>
+        <v>0.1326637171608705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2351513540184672</v>
+        <v>0.233726318265577</v>
       </c>
     </row>
     <row r="15">
@@ -3577,19 +3577,19 @@
         <v>85615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>71396</v>
+        <v>71712</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>99550</v>
+        <v>100863</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3787346260088282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.315836330589842</v>
+        <v>0.3172312858273252</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4403799315046662</v>
+        <v>0.4461870138102974</v>
       </c>
     </row>
     <row r="16">
@@ -3606,19 +3606,19 @@
         <v>70313</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56749</v>
+        <v>57175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84454</v>
+        <v>84696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3110433305960225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2510394982184257</v>
+        <v>0.2529247652197874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3735983941179729</v>
+        <v>0.3746710022272332</v>
       </c>
     </row>
     <row r="17">
@@ -3635,19 +3635,19 @@
         <v>28702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19957</v>
+        <v>20331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40220</v>
+        <v>39491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1269678620072003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08828265700120273</v>
+        <v>0.08993996336848022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1779225343384891</v>
+        <v>0.1746951080979759</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>53571</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40967</v>
+        <v>40975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67507</v>
+        <v>69357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1253333621836243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09584541722780769</v>
+        <v>0.09586346401697483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1579383404679155</v>
+        <v>0.1622670666837221</v>
       </c>
     </row>
     <row r="20">
@@ -3726,19 +3726,19 @@
         <v>185540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166362</v>
+        <v>165395</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207993</v>
+        <v>207866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4340853031654404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3892182660516676</v>
+        <v>0.3869538935090315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4866161086582552</v>
+        <v>0.4863194997572193</v>
       </c>
     </row>
     <row r="21">
@@ -3755,19 +3755,19 @@
         <v>121350</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>101240</v>
+        <v>102888</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>141763</v>
+        <v>141880</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2839090930108136</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2368580280667289</v>
+        <v>0.240714554800365</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3316660460494312</v>
+        <v>0.3319405285493997</v>
       </c>
     </row>
     <row r="22">
@@ -3784,19 +3784,19 @@
         <v>66966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52501</v>
+        <v>52131</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82995</v>
+        <v>83314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1566722416401217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1228303970127666</v>
+        <v>0.1219650050178816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1941733412374747</v>
+        <v>0.1949210040251556</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>62966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48820</v>
+        <v>48261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77877</v>
+        <v>80663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1409097192486927</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1092543208029021</v>
+        <v>0.1080032201833455</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1742801371222369</v>
+        <v>0.1805134279910529</v>
       </c>
     </row>
     <row r="25">
@@ -3875,19 +3875,19 @@
         <v>216741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>193903</v>
+        <v>194784</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>240106</v>
+        <v>238192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4850402789538237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4339310521560318</v>
+        <v>0.4359046285170144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.537329003665901</v>
+        <v>0.5330457988399339</v>
       </c>
     </row>
     <row r="26">
@@ -3904,19 +3904,19 @@
         <v>105298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86354</v>
+        <v>86447</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124451</v>
+        <v>124853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2356448732516136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.19325108905874</v>
+        <v>0.1934591988894864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.278506776694717</v>
+        <v>0.2794061995604064</v>
       </c>
     </row>
     <row r="27">
@@ -3933,19 +3933,19 @@
         <v>61846</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47146</v>
+        <v>46644</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>77967</v>
+        <v>79127</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1384051285458699</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1055061447734757</v>
+        <v>0.1043830785205924</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1744814637925871</v>
+        <v>0.1770774530541526</v>
       </c>
     </row>
     <row r="28">
@@ -3995,19 +3995,19 @@
         <v>83229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67466</v>
+        <v>68554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99815</v>
+        <v>97943</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2584169150656166</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2094737614159574</v>
+        <v>0.2128525787262061</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3099149594164676</v>
+        <v>0.3041028698960623</v>
       </c>
     </row>
     <row r="30">
@@ -4024,19 +4024,19 @@
         <v>136605</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>119510</v>
+        <v>118764</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>156489</v>
+        <v>155479</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4241456394719155</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3710656061278109</v>
+        <v>0.3687501498504434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4858807849900788</v>
+        <v>0.482745159754677</v>
       </c>
     </row>
     <row r="31">
@@ -4053,19 +4053,19 @@
         <v>65604</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>51738</v>
+        <v>51332</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>82715</v>
+        <v>79745</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2036938294885328</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1606421177296915</v>
+        <v>0.1593818382014994</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2568206953621024</v>
+        <v>0.2475992055191713</v>
       </c>
     </row>
     <row r="32">
@@ -4082,19 +4082,19 @@
         <v>36634</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25960</v>
+        <v>25461</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48896</v>
+        <v>49956</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.113743615973935</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08060193608136557</v>
+        <v>0.07905445315306991</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1518172600072238</v>
+        <v>0.1551067619376444</v>
       </c>
     </row>
     <row r="33">
@@ -4144,19 +4144,19 @@
         <v>174772</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>158127</v>
+        <v>157826</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>189928</v>
+        <v>189344</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7375233695600927</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6672801627919646</v>
+        <v>0.6660098236837885</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8014803719065932</v>
+        <v>0.7990142873889584</v>
       </c>
     </row>
     <row r="35">
@@ -4173,19 +4173,19 @@
         <v>40548</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28598</v>
+        <v>28408</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55308</v>
+        <v>56501</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1711082554872567</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.120680583230591</v>
+        <v>0.1198783779397958</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2333950868727506</v>
+        <v>0.2384284719292062</v>
       </c>
     </row>
     <row r="36">
@@ -4202,19 +4202,19 @@
         <v>19302</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11261</v>
+        <v>10635</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31900</v>
+        <v>31348</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08145344149457914</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04751933487227949</v>
+        <v>0.04487970047052686</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1346148750932024</v>
+        <v>0.132284909013824</v>
       </c>
     </row>
     <row r="37">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8973</v>
+        <v>7524</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009914933458071437</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03786648696483374</v>
+        <v>0.03175096458268419</v>
       </c>
     </row>
     <row r="38">
@@ -4293,19 +4293,19 @@
         <v>428991</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>389805</v>
+        <v>395339</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>463901</v>
+        <v>468362</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2442682833160548</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2219559133417531</v>
+        <v>0.2251071619953489</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2641462142010751</v>
+        <v>0.2666866910402146</v>
       </c>
     </row>
     <row r="40">
@@ -4322,19 +4322,19 @@
         <v>706027</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>665218</v>
+        <v>662416</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>751326</v>
+        <v>749857</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4020136492785563</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3787769192055516</v>
+        <v>0.3771814077110091</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4278070093129216</v>
+        <v>0.4269705506531852</v>
       </c>
     </row>
     <row r="41">
@@ -4351,19 +4351,19 @@
         <v>412300</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>373031</v>
+        <v>378609</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>447327</v>
+        <v>450856</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2347646947699081</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2124048678604209</v>
+        <v>0.2155807325601169</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2547090025386862</v>
+        <v>0.2567185776034828</v>
       </c>
     </row>
     <row r="42">
@@ -4380,19 +4380,19 @@
         <v>208909</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>181639</v>
+        <v>181534</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>237022</v>
+        <v>236585</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1189533726354809</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1034255958447553</v>
+        <v>0.1033661797499817</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1349608046113967</v>
+        <v>0.1347122375901725</v>
       </c>
     </row>
     <row r="43">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10176</v>
+        <v>9279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.143443369197959</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4638372167598906</v>
+        <v>0.4229614330234195</v>
       </c>
     </row>
     <row r="5">
@@ -4592,19 +4592,19 @@
         <v>9189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2445</v>
+        <v>3345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15187</v>
+        <v>15524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.418854517018707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1114516948518795</v>
+        <v>0.1524754715565397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6922337684356911</v>
+        <v>0.7075762304595438</v>
       </c>
     </row>
     <row r="6">
@@ -4621,19 +4621,19 @@
         <v>5432</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1334</v>
+        <v>1348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13120</v>
+        <v>13350</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.247580817532029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06082476924110005</v>
+        <v>0.06142700631552595</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5980041127059171</v>
+        <v>0.6084921319679241</v>
       </c>
     </row>
     <row r="7">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11446</v>
+        <v>12288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1901212962513051</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5217052804457852</v>
+        <v>0.5601198287411019</v>
       </c>
     </row>
     <row r="8">
@@ -4712,19 +4712,19 @@
         <v>12419</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6811</v>
+        <v>6869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19440</v>
+        <v>19073</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2374570478253283</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1302339153137498</v>
+        <v>0.1313425471650176</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3716931664129706</v>
+        <v>0.3646718388329713</v>
       </c>
     </row>
     <row r="10">
@@ -4741,19 +4741,19 @@
         <v>16648</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10445</v>
+        <v>10370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24480</v>
+        <v>23965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3183195261771034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1997044666909845</v>
+        <v>0.1982813979642295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4680611413911018</v>
+        <v>0.458215951455353</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>9742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5047</v>
+        <v>4865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16679</v>
+        <v>16603</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1862644329887029</v>
+        <v>0.1862644329887028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09649948033794119</v>
+        <v>0.09302177254760514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3189072200718679</v>
+        <v>0.3174427204297569</v>
       </c>
     </row>
     <row r="12">
@@ -4799,19 +4799,19 @@
         <v>13492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7737</v>
+        <v>7589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21196</v>
+        <v>21536</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2579589930088653</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1479373512621652</v>
+        <v>0.1450956188428796</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4052708768366612</v>
+        <v>0.4117787526262813</v>
       </c>
     </row>
     <row r="13">
@@ -4861,19 +4861,19 @@
         <v>40251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31833</v>
+        <v>31993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49750</v>
+        <v>49737</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2842630157895216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2248107973856445</v>
+        <v>0.2259416579470689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3513445189620075</v>
+        <v>0.351251019325477</v>
       </c>
     </row>
     <row r="15">
@@ -4890,19 +4890,19 @@
         <v>36605</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28387</v>
+        <v>28713</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45680</v>
+        <v>45111</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2585144253900479</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2004717396059099</v>
+        <v>0.2027769057835951</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3226022943349375</v>
+        <v>0.3185839644489124</v>
       </c>
     </row>
     <row r="16">
@@ -4919,19 +4919,19 @@
         <v>46175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37284</v>
+        <v>37638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56097</v>
+        <v>56170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.32610013085489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2633076023902111</v>
+        <v>0.2658094935045831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3961674557283151</v>
+        <v>0.396680745223202</v>
       </c>
     </row>
     <row r="17">
@@ -4948,19 +4948,19 @@
         <v>18567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12242</v>
+        <v>12609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26316</v>
+        <v>26720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1311224279655405</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08645317699149234</v>
+        <v>0.08904435486011719</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1858465254761285</v>
+        <v>0.1887045017696601</v>
       </c>
     </row>
     <row r="18">
@@ -5010,19 +5010,19 @@
         <v>44264</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36067</v>
+        <v>35287</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55723</v>
+        <v>54841</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.14014765974814</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1141955270755773</v>
+        <v>0.1117272411872844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1764300147845356</v>
+        <v>0.17363662262914</v>
       </c>
     </row>
     <row r="20">
@@ -5039,19 +5039,19 @@
         <v>101835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89977</v>
+        <v>89642</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>117797</v>
+        <v>115526</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3224306896658828</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2848845042666257</v>
+        <v>0.28382598470757</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3729682600808051</v>
+        <v>0.3657775111619871</v>
       </c>
     </row>
     <row r="21">
@@ -5068,19 +5068,19 @@
         <v>105685</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92459</v>
+        <v>92730</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117805</v>
+        <v>118722</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3346190127008648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2927421422941387</v>
+        <v>0.2936011497617192</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3729937236289121</v>
+        <v>0.3758967197002872</v>
       </c>
     </row>
     <row r="22">
@@ -5097,19 +5097,19 @@
         <v>64052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52548</v>
+        <v>54192</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75732</v>
+        <v>77092</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2028026378851125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1663786055876365</v>
+        <v>0.1715811974958069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2397813625868574</v>
+        <v>0.2440878224680456</v>
       </c>
     </row>
     <row r="23">
@@ -5159,19 +5159,19 @@
         <v>54346</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45185</v>
+        <v>44382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65671</v>
+        <v>65156</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1532951793154288</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1274529305613864</v>
+        <v>0.1251887277100311</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1852375248760189</v>
+        <v>0.1837857397055015</v>
       </c>
     </row>
     <row r="25">
@@ -5188,19 +5188,19 @@
         <v>146173</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133168</v>
+        <v>132194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>161641</v>
+        <v>159068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4123103827420521</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3756282032547578</v>
+        <v>0.3728806618954412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4559432124948868</v>
+        <v>0.4486845445939606</v>
       </c>
     </row>
     <row r="26">
@@ -5217,19 +5217,19 @@
         <v>104313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90007</v>
+        <v>91326</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115919</v>
+        <v>116283</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2942374686687883</v>
+        <v>0.2942374686687884</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2538839779648047</v>
+        <v>0.2576028608540226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3269734621082985</v>
+        <v>0.3280014347796144</v>
       </c>
     </row>
     <row r="27">
@@ -5246,19 +5246,19 @@
         <v>49689</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>40735</v>
+        <v>40485</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60531</v>
+        <v>59643</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1401569692737308</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1149018187760892</v>
+        <v>0.1141953512409504</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1707396504933817</v>
+        <v>0.168236416739799</v>
       </c>
     </row>
     <row r="28">
@@ -5308,19 +5308,19 @@
         <v>93371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81222</v>
+        <v>82272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104954</v>
+        <v>105204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3161215975147061</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2749893647775234</v>
+        <v>0.2785450598825099</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3553380315696269</v>
+        <v>0.3561862260891158</v>
       </c>
     </row>
     <row r="30">
@@ -5337,19 +5337,19 @@
         <v>116158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>104109</v>
+        <v>104770</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127827</v>
+        <v>129411</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3932724246092288</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3524787453787798</v>
+        <v>0.3547156997554522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4327790490899032</v>
+        <v>0.4381413461094849</v>
       </c>
     </row>
     <row r="31">
@@ -5366,19 +5366,19 @@
         <v>58146</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48291</v>
+        <v>48584</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67881</v>
+        <v>68422</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1968633152779499</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1634975542694365</v>
+        <v>0.1644893555781556</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2298227076854072</v>
+        <v>0.2316551796270806</v>
       </c>
     </row>
     <row r="32">
@@ -5395,19 +5395,19 @@
         <v>27688</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20698</v>
+        <v>20284</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35013</v>
+        <v>35094</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0937426625981152</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07007668099916425</v>
+        <v>0.06867394224405172</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1185406031634181</v>
+        <v>0.1188155557924588</v>
       </c>
     </row>
     <row r="33">
@@ -5457,19 +5457,19 @@
         <v>234371</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>222966</v>
+        <v>223821</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>242682</v>
+        <v>243518</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8382099440533195</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7974216556583422</v>
+        <v>0.8004773483897787</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8679340413752132</v>
+        <v>0.8709239651395105</v>
       </c>
     </row>
     <row r="35">
@@ -5486,19 +5486,19 @@
         <v>31173</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23839</v>
+        <v>23354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40676</v>
+        <v>40077</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1114890112188296</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08525742702922035</v>
+        <v>0.08352217411349748</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1454730946018538</v>
+        <v>0.1433316135169212</v>
       </c>
     </row>
     <row r="36">
@@ -5515,19 +5515,19 @@
         <v>11718</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7461</v>
+        <v>7528</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18111</v>
+        <v>17775</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04190901025138231</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02668531246255498</v>
+        <v>0.02692426102819734</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06477206519898655</v>
+        <v>0.06357028007254417</v>
       </c>
     </row>
     <row r="37">
@@ -5544,19 +5544,19 @@
         <v>2346</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5306</v>
+        <v>5075</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.008392034476468422</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003091303020052332</v>
+        <v>0.003086364211391564</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0189774348375556</v>
+        <v>0.01815081581223137</v>
       </c>
     </row>
     <row r="38">
@@ -5606,19 +5606,19 @@
         <v>482169</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>455426</v>
+        <v>453474</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>511880</v>
+        <v>508912</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3299890886050815</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3116859303376816</v>
+        <v>0.3103500566128461</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3503224612300947</v>
+        <v>0.3482913544915392</v>
       </c>
     </row>
     <row r="40">
@@ -5635,19 +5635,19 @@
         <v>457782</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>432162</v>
+        <v>429490</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>486664</v>
+        <v>486530</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3132989137122294</v>
+        <v>0.3132989137122293</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2957647756580456</v>
+        <v>0.2939361360699164</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.333064961951215</v>
+        <v>0.3329731625334484</v>
       </c>
     </row>
     <row r="41">
@@ -5664,19 +5664,19 @@
         <v>341211</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>317371</v>
+        <v>312527</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>367359</v>
+        <v>364720</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2335195498038788</v>
+        <v>0.2335195498038787</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2172034723592037</v>
+        <v>0.2138882308378441</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2514148048823739</v>
+        <v>0.2496085080394584</v>
       </c>
     </row>
     <row r="42">
@@ -5693,19 +5693,19 @@
         <v>180005</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>159092</v>
+        <v>159435</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>200807</v>
+        <v>202702</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1231924478788104</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1088799290346792</v>
+        <v>0.1091148126287918</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1374292887427068</v>
+        <v>0.1387260421228726</v>
       </c>
     </row>
     <row r="43">
